--- a/ALU/实验结果记录表格-实验3-实验10.xlsx
+++ b/ALU/实验结果记录表格-实验3-实验10.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <r>
       <rPr>
@@ -133,7 +133,7 @@
     </r>
   </si>
   <si>
-    <t>11111111_11111111_11111111_11111100</t>
+    <t>00000000_00000000_00000000_00000011</t>
   </si>
   <si>
     <t>00000000_00000000_00000000_00000001</t>
@@ -145,121 +145,124 @@
     <t>加法</t>
   </si>
   <si>
-    <t>11111111_11111111_11111111_11111101</t>
+    <t>00000000_00000000_00000000_00000100</t>
+  </si>
+  <si>
+    <t>0 0 0 0</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_0000001</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_00000010</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>左移</t>
+  </si>
+  <si>
+    <t>10000000_00000000_00000000_00000010</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>有符号数比较小于置数</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_00001000</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>无符号数比较小于置数</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_00000000</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>异或</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_00001100</t>
+  </si>
+  <si>
+    <t>11110000_00000000_00000000_11110000</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>逻辑右移</t>
+  </si>
+  <si>
+    <t>01111000_00000000_00000000_01111000</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_00001111</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_11110000</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>按位或</t>
+  </si>
+  <si>
+    <t>00000000_00000000_00000000_11111111</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>按位与</t>
+  </si>
+  <si>
+    <t>1 0 0 0</t>
+  </si>
+  <si>
+    <t>10000000_00000000_00000000_00000000</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>减法</t>
+  </si>
+  <si>
+    <t>01111111_11111111_11111111_11111111</t>
+  </si>
+  <si>
+    <t>0 0 0 1</t>
+  </si>
+  <si>
+    <t>算术右移</t>
+  </si>
+  <si>
+    <t>11111000_00000000_00000000_01111000</t>
   </si>
   <si>
     <t>0 1 0 0</t>
   </si>
   <si>
-    <t>10000000_00000000_00000000_00000001</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>左移</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_00000010</t>
-  </si>
-  <si>
-    <t>1 0 1 0</t>
+    <t>00000000 00000000 00000000 00000100</t>
+  </si>
+  <si>
+    <t>00000000 00000000 00000000 00001010</t>
   </si>
   <si>
     <t>11111111_11111111_11111111_11111010</t>
   </si>
   <si>
-    <t>0010</t>
-  </si>
-  <si>
-    <t>有符号数比较小于置数</t>
-  </si>
-  <si>
-    <t>0 0 0 0</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_00001000</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_00000100</t>
-  </si>
-  <si>
-    <t>0011</t>
-  </si>
-  <si>
-    <t>无符号数比较小于置数</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_00000000</t>
-  </si>
-  <si>
-    <t>0100</t>
-  </si>
-  <si>
-    <t>异或</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_00001100</t>
-  </si>
-  <si>
-    <t>11110000_00001111_10101010_11110000</t>
-  </si>
-  <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>逻辑右移</t>
-  </si>
-  <si>
-    <t>01111000_00000111_11010101_01111000</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_00001111</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_11110000</t>
-  </si>
-  <si>
-    <t>0110</t>
-  </si>
-  <si>
-    <t>按位或</t>
-  </si>
-  <si>
-    <t>00000000_00000000_00000000_11111111</t>
-  </si>
-  <si>
-    <t>0111</t>
-  </si>
-  <si>
-    <t>按位与</t>
-  </si>
-  <si>
-    <t>1 0 0 0</t>
-  </si>
-  <si>
-    <t>10000000_00000000_00000000_00000000</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>减法</t>
-  </si>
-  <si>
-    <t>01111111_11111111_11111111_11111111</t>
-  </si>
-  <si>
-    <t>0 0 0 1</t>
-  </si>
-  <si>
-    <t>算术右移</t>
-  </si>
-  <si>
-    <t>11111000_00000111_11010101_01111000</t>
+    <t>0 1 1 0</t>
   </si>
   <si>
     <t>zf全为0置1</t>
@@ -516,7 +519,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -547,26 +550,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -584,19 +567,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -937,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1161,19 +1131,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1301,152 +1258,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,110 +1412,98 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1880,315 +1825,323 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="37.9646017699115" style="17" customWidth="1"/>
-    <col min="3" max="3" width="40.8938053097345" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1327433628319" style="17" customWidth="1"/>
-    <col min="5" max="5" width="23.7699115044248" style="17" customWidth="1"/>
-    <col min="6" max="6" width="39.8318584070796" style="17" customWidth="1"/>
-    <col min="7" max="7" width="25.8672566371681" style="17" customWidth="1"/>
+    <col min="2" max="2" width="42.4070796460177" style="15" customWidth="1"/>
+    <col min="3" max="3" width="40.8938053097345" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.1327433628319" style="15" customWidth="1"/>
+    <col min="5" max="5" width="23.7699115044248" style="15" customWidth="1"/>
+    <col min="6" max="6" width="40.9203539823009" style="15" customWidth="1"/>
+    <col min="7" max="7" width="25.8672566371681" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="27" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="32">
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="H3">
-        <f>-4+1</f>
-        <v>-3</v>
-      </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="32">
+      <c r="A4" s="28">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="C5" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="32">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="s">
+      <c r="E5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="33" t="s">
+      <c r="F5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="28">
+        <v>4</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="C6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="E6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="28">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="28">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="32">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="s">
+      <c r="D8" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="28">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="28">
+        <v>8</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="33" t="s">
+      <c r="G10" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="28">
+        <v>9</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="32">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="32">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="32">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="32">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="C12" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="32">
+        <v>1101</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="28">
+        <v>11</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="33">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="32">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="32">
-        <v>10</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="36">
-        <v>1101</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="33" t="s">
+      <c r="F13" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="32">
-        <v>11</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39"/>
+      <c r="G13" s="35" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="6:7">
-      <c r="F18" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="15" t="s">
         <v>52</v>
       </c>
+      <c r="G18" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="6:7">
-      <c r="F19" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="15" t="s">
         <v>54</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2221,36 +2174,36 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:7">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" s="25" t="s">
+      <c r="F2" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2259,15 +2212,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -2371,7 +2324,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
@@ -2411,33 +2364,33 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" s="17" customFormat="1" ht="19.9" customHeight="1" spans="1:6">
-      <c r="A2" s="19" t="s">
+      <c r="A1" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" s="15" customFormat="1" ht="19.9" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
@@ -2541,7 +2494,7 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
@@ -2551,34 +2504,34 @@
       <c r="F13" s="11"/>
     </row>
     <row r="15" customHeight="1" spans="2:2">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:8">
@@ -2702,7 +2655,7 @@
       <c r="H26" s="9"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="15">
+      <c r="A27" s="13">
         <v>11</v>
       </c>
       <c r="B27" s="10"/>
@@ -2742,37 +2695,37 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="A1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="13" t="s">
         <v>76</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
@@ -2886,7 +2839,7 @@
       <c r="G12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>11</v>
       </c>
       <c r="B13" s="10"/>
@@ -2925,37 +2878,37 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="A1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
     <row r="2" ht="19.9" customHeight="1" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="13" t="s">
         <v>80</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
@@ -3245,7 +3198,7 @@
       <c r="G28" s="9"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>27</v>
       </c>
       <c r="B29" s="10"/>
@@ -3285,7 +3238,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3300,25 +3253,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>82</v>
+      <c r="G2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
@@ -3794,7 +3747,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3807,19 +3760,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
